--- a/FantaSoccer/MyModule/Ligue1/xG_tot_all_18.xlsx
+++ b/FantaSoccer/MyModule/Ligue1/xG_tot_all_18.xlsx
@@ -815,31 +815,31 @@
         <v>14.400936</v>
       </c>
       <c r="K6">
-        <v>14.400936</v>
+        <v>15.950976</v>
       </c>
       <c r="L6">
-        <v>16.442186</v>
+        <v>17.992226</v>
       </c>
       <c r="M6">
-        <v>17.722306</v>
+        <v>19.272346</v>
       </c>
       <c r="N6">
-        <v>19.098406</v>
+        <v>20.648446</v>
       </c>
       <c r="O6">
-        <v>20.026284</v>
+        <v>21.576324</v>
       </c>
       <c r="P6">
-        <v>21.414904</v>
+        <v>22.964944</v>
       </c>
       <c r="Q6">
-        <v>22.378029</v>
+        <v>23.928069</v>
       </c>
       <c r="R6">
-        <v>23.523349</v>
+        <v>25.073389</v>
       </c>
       <c r="S6">
-        <v>25.549419</v>
+        <v>27.099459</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1051,31 +1051,31 @@
         <v>8.445010999999999</v>
       </c>
       <c r="K10">
-        <v>8.445010999999999</v>
+        <v>8.563734999999999</v>
       </c>
       <c r="L10">
-        <v>8.4870234</v>
+        <v>8.6057474</v>
       </c>
       <c r="M10">
-        <v>8.4870234</v>
+        <v>8.6057474</v>
       </c>
       <c r="N10">
-        <v>11.2329234</v>
+        <v>11.3516474</v>
       </c>
       <c r="O10">
-        <v>13.4017334</v>
+        <v>13.5204574</v>
       </c>
       <c r="P10">
-        <v>14.9292134</v>
+        <v>15.0479374</v>
       </c>
       <c r="Q10">
-        <v>16.1715634</v>
+        <v>16.2902874</v>
       </c>
       <c r="R10">
-        <v>17.6772534</v>
+        <v>17.7959774</v>
       </c>
       <c r="S10">
-        <v>19.1748134</v>
+        <v>19.2935374</v>
       </c>
     </row>
     <row r="11" spans="1:19">
